--- a/2quiz/quiz2-helper.xlsx
+++ b/2quiz/quiz2-helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\School\FALL 2019\CPTS 434 - Neural Networks\434_NeuralNetworks\2quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D73109-3883-4701-9014-03600A756BD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99FEDC9-1684-4A30-843F-F81DC9FC35E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3A520183-B366-4CE7-A69B-36DFCD96AE12}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -146,7 +146,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -462,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E1FBCB-98CF-4ED4-9450-4643CC45D353}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,7 +610,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -623,7 +623,7 @@
         <v>Variable is NOT adequately represented in the PCA with the current retention</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -631,56 +631,64 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
-        <v>0.1</v>
+        <v>1.11E-2</v>
       </c>
       <c r="B20">
         <f>A20/$A$23</f>
-        <v>0.26666666666666666</v>
+        <v>0.31805157593123212</v>
       </c>
       <c r="F20">
         <f>B22</f>
-        <v>0.19999999999999996</v>
+        <v>6.5902578796561598E-2</v>
       </c>
       <c r="G20">
         <f>F20+B20</f>
-        <v>0.46666666666666662</v>
+        <v>0.38395415472779371</v>
       </c>
       <c r="H20">
         <f>SUM(B20:B22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
-        <v>0.2</v>
+        <v>2.1499999999999998E-2</v>
       </c>
       <c r="B21">
         <f t="shared" ref="B21:B22" si="1">A21/$A$23</f>
-        <v>0.53333333333333333</v>
+        <v>0.61604584527220629</v>
       </c>
       <c r="D21">
         <f>B20+B21</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.93409742120343842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>7.4999999999999997E-2</v>
+        <v>2.3E-3</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+        <v>6.5902578796561598E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <f>SUM(A20:A22)</f>
-        <v>0.37500000000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3.49E-2</v>
+      </c>
+      <c r="E23">
+        <f>1-B21</f>
+        <v>0.38395415472779371</v>
+      </c>
+      <c r="I23">
+        <f>0.5/SQRT(2)</f>
+        <v>0.35355339059327373</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>15</v>
       </c>
@@ -688,7 +696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -703,7 +711,7 @@
         <v>0.6100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -718,7 +726,7 @@
         <v>0.38480000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -733,7 +741,7 @@
         <v>8.4800000000000014E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>14</v>
       </c>
